--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D88D0C-6ED1-46C8-B850-BAC7AAC2E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC4A29-48BA-4FF9-8BA9-DD2AFFC97C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Sold during rise</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -524,6 +527,9 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
@@ -562,6 +568,9 @@
       </c>
       <c r="H3" t="s">
         <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>

--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC4A29-48BA-4FF9-8BA9-DD2AFFC97C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE426D5-39F2-49CF-A7A7-2D83E4FF69FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -106,13 +106,19 @@
   </si>
   <si>
     <t>Software</t>
+  </si>
+  <si>
+    <t>Primary Email *</t>
+  </si>
+  <si>
+    <t>tc@apple.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +136,14 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,17 +163,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{18893656-D531-4DAE-AC16-EFA61BBF1EF6}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{89B7DF89-F492-4764-A62E-F995A79F5BE1}"/>
@@ -440,22 +457,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" customWidth="1"/>
+    <col min="3" max="4" width="22.1328125" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -466,43 +483,46 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -512,41 +532,44 @@
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
         <v>43831</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -554,41 +577,45 @@
         <v>6</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="1">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
         <v>43831</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-10000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C9495A3-5B85-46B5-9374-0C11DDDC2A23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE426D5-39F2-49CF-A7A7-2D83E4FF69FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2462D2-8964-4049-B93E-CD67F88FAE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Equity</t>
   </si>
   <si>
-    <t>Pan *</t>
-  </si>
-  <si>
-    <t>BUHNXDFEA7</t>
-  </si>
-  <si>
     <t>Category *</t>
   </si>
   <si>
@@ -106,19 +100,13 @@
   </si>
   <si>
     <t>Software</t>
-  </si>
-  <si>
-    <t>Primary Email *</t>
-  </si>
-  <si>
-    <t>tc@apple.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,14 +124,6 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,20 +143,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{18893656-D531-4DAE-AC16-EFA61BBF1EF6}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{89B7DF89-F492-4764-A62E-F995A79F5BE1}"/>
@@ -457,22 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.1328125" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -480,31 +455,31 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
@@ -515,107 +490,90 @@
       <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1">
         <v>43831</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>2000000</v>
       </c>
-      <c r="G2">
+      <c r="E2">
         <v>20000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1">
+      <c r="C3" s="1">
         <v>43831</v>
       </c>
-      <c r="F3">
+      <c r="D3">
         <v>1000000</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>-10000</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C9495A3-5B85-46B5-9374-0C11DDDC2A23}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2462D2-8964-4049-B93E-CD67F88FAE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B49D2-B0D9-4EF3-9A1E-E686E4158746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -99,7 +99,13 @@
     <t>Sold during rise</t>
   </si>
   <si>
-    <t>Software</t>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Tech</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -444,10 +450,10 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -473,25 +479,28 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -514,25 +523,28 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -555,21 +567,24 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A4899-AE21-48DF-806B-280ED9D0B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BECA6-5381-4372-8E3C-8F9F276464BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Investment Date *</t>
   </si>
   <si>
-    <t>Amount *</t>
-  </si>
-  <si>
     <t>Quantity *</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>INR</t>
+  </si>
+  <si>
+    <t>Amount (Excluding Expenses) *</t>
   </si>
 </sst>
 </file>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -487,42 +487,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>43831</v>
@@ -534,33 +534,33 @@
         <v>20000</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>43831</v>
@@ -572,25 +572,25 @@
         <v>-10000</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BECA6-5381-4372-8E3C-8F9F276464BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F62810-0EF5-4AFB-9D71-CCAEFB71F1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Fund</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Folio No</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>Bought during dip</t>
-  </si>
-  <si>
-    <t>Pool</t>
   </si>
   <si>
     <t>Stock</t>
@@ -462,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,10 +467,10 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="1015" max="1025" width="9.1328125" customWidth="1"/>
+    <col min="1014" max="1024" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -502,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -513,16 +507,13 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>43831</v>
@@ -534,33 +525,30 @@
         <v>20000</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>43831</v>
@@ -572,25 +560,22 @@
         <v>-10000</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F62810-0EF5-4AFB-9D71-CCAEFB71F1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5042E2EA-2078-4BA3-BF6F-6DBD736D19F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Fund</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Folio No</t>
   </si>
   <si>
     <t>Instrument</t>
@@ -456,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -467,10 +464,11 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="1014" max="1024" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="1013" max="1023" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -493,10 +491,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -504,16 +502,13 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>43831</v>
@@ -525,13 +520,16 @@
         <v>20000</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -539,16 +537,13 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>43831</v>
@@ -560,22 +555,22 @@
         <v>-10000</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Custom Field 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excused Folio Ids</t>
   </si>
   <si>
     <t xml:space="preserve">SAAS Fund</t>
@@ -90,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,6 +135,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,20 +206,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,124 +482,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1013" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1013" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>43831</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>43831</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>-10000</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments2.xlsx
+++ b/public/sample_uploads/portfolio_investments2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Excused Folio Ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proforma</t>
   </si>
   <si>
     <t xml:space="preserve">SAAS Fund</t>
@@ -93,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,6 +144,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -206,7 +216,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,11 +229,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,10 +496,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,7 +511,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1013" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,16 +547,19 @@
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -552,32 +569,32 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -587,22 +604,22 @@
         <v>-10000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
